--- a/baby_steps/spreadsheet1.xlsx
+++ b/baby_steps/spreadsheet1.xlsx
@@ -17,7 +17,7 @@
     <t>Table 1</t>
   </si>
   <si>
-    <t>cell1a</t>
+    <t>corner</t>
   </si>
   <si>
     <t>cell1b</t>
